--- a/common-exception/doc/错误码及其描述.xlsx
+++ b/common-exception/doc/错误码及其描述.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数值格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未获取到对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、长度
-2、日期
-3、金额
-4、邮箱
-5、URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数不存在或值为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,9 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -171,14 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X和Y不匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X非法状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数非枚举值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +177,26 @@
   </si>
   <si>
     <t>错误描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户未登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +215,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -256,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +307,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -305,6 +323,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -593,11 +617,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -618,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -632,82 +654,82 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="67.5">
-      <c r="A3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="5" t="s">
-        <v>42</v>
+      <c r="D6" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>19</v>
@@ -715,126 +737,129 @@
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="D14" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/common-exception/doc/错误码及其描述.xlsx
+++ b/common-exception/doc/错误码及其描述.xlsx
@@ -308,14 +308,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,49 +656,49 @@
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="6"/>
@@ -707,7 +707,7 @@
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -724,7 +724,7 @@
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
@@ -763,11 +763,11 @@
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="8"/>
@@ -776,22 +776,22 @@
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="8"/>
@@ -800,20 +800,20 @@
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="8"/>
@@ -822,11 +822,11 @@
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="8"/>
